--- a/biology/Botanique/Floriade/Floriade.xlsx
+++ b/biology/Botanique/Floriade/Floriade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Floriade est une exposition internationale d'horticulture qui pend place tous les dix ans aux Pays-Bas. 
 Répertoriée comme une exposition horticole de catégorie A1 par l'Association internationale des producteurs d'horticulture (en) (AIPH), elle est reconnue par le Bureau international des expositions (BIE). La manifestation est attribuée à une ville candidate et met en compétition plusieurs sites.
-Du 14 avril au 9 octobre 2022, Almere (Flevoland) organise la 7e édition de la Floriade[1].
+Du 14 avril au 9 octobre 2022, Almere (Flevoland) organise la 7e édition de la Floriade.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1960 : Rotterdam (Het Park)
 1972 : Amsterdam (Amstelpark et Beatrixpark)
